--- a/analysis/comparison.xlsx
+++ b/analysis/comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7IS2_ArtificialIntelligence\Assignments\Assignment1\code\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9780A2-7396-47FC-BA8F-3B4F521CDFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B6336-E7F4-42E8-BED3-CD30E313FDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="mdp" sheetId="2" r:id="rId2"/>
     <sheet name="all" sheetId="3" r:id="rId3"/>
+    <sheet name="solution_length" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="54">
   <si>
     <t>Solution Length</t>
   </si>
@@ -177,12 +178,37 @@
   <si>
     <t>Explored - Solution</t>
   </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Maze
+(Size Id)</t>
+  </si>
+  <si>
+    <t>Sol Length</t>
+  </si>
+  <si>
+    <t>Exp Length</t>
+  </si>
+  <si>
+    <t>Exp - Sol Length</t>
+  </si>
+  <si>
+    <t>Memory Usage (MB)</t>
+  </si>
+  <si>
+    <t>Memory Usage (B)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +226,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -322,11 +362,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,15 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,15 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -393,6 +532,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,10 +556,157 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,8 +717,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF1E7FD"/>
       <color rgb="FFFFD9D9"/>
-      <color rgb="FFF1E7FD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -696,9 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -741,52 +1042,52 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="19">
         <v>10</v>
       </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
         <v>5000</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="19">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="19">
         <v>18</v>
       </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>74297045</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="19">
         <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -815,22 +1116,22 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="19">
         <v>36</v>
       </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
         <v>74913813</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="19">
         <v>49</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -842,42 +1143,42 @@
       <c r="K4" s="4">
         <v>2725000</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="15">
         <f>K4*0.000002</f>
         <v>5.45</v>
       </c>
       <c r="M4" s="4">
         <v>11200</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="15">
         <f>M4*0.000001</f>
         <v>1.12E-2</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="15">
         <v>10</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="15">
         <f>O4-J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="19">
         <v>57</v>
       </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
         <v>75483805</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="19">
         <v>113</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -889,42 +1190,42 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <f>K5*0.000002</f>
         <v>0</v>
       </c>
       <c r="M5" s="4">
         <v>11200</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="15">
         <f>M5*0.000001</f>
         <v>1.12E-2</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="15">
         <v>15</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="15">
         <f t="shared" ref="P5:P6" si="0">O5-J5</f>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="19">
         <v>41</v>
       </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>75536712</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="19">
         <v>63</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -936,92 +1237,92 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="15">
         <f>K6*0.000002</f>
         <v>0</v>
       </c>
       <c r="M6" s="4">
         <v>11202</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="15">
         <f>M6*0.000001</f>
         <v>1.1202E-2</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="15">
         <v>9</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="19">
         <v>38</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="19">
         <v>1008400</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="19">
         <v>76070474</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="19">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="19">
         <v>62</v>
       </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
         <v>76602137</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="19">
         <v>88</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="19">
         <v>35</v>
       </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
         <v>77131200</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="19">
         <v>41</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1050,28 +1351,28 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="19">
         <v>39</v>
       </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>77651179</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="19">
         <v>42</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <f>AVERAGE(C3:C12)</f>
         <v>37.1</v>
       </c>
@@ -1079,7 +1380,7 @@
         <f>AVERAGE(D3:D12)</f>
         <v>100840</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="15">
         <f>K10*0.000002</f>
         <v>0.20168</v>
       </c>
@@ -1087,42 +1388,42 @@
         <f>AVERAGE(E3:E12)</f>
         <v>76455406.599999994</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="15">
         <f>M10*0.000001</f>
         <v>76.455406599999989</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="15">
         <f>AVERAGE(F3:F12)</f>
         <v>56.1</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="15">
         <f>O10-J10</f>
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="19">
         <v>23</v>
       </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>78178665</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="19">
         <v>25</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="15">
         <f>AVERAGE(C20:C29)</f>
         <v>20.399999999999999</v>
       </c>
@@ -1130,7 +1431,7 @@
         <f>AVERAGE(D20:D29)</f>
         <v>650500</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="15">
         <f t="shared" ref="L11:L12" si="1">K11*0.000002</f>
         <v>1.3009999999999999</v>
       </c>
@@ -1138,42 +1439,42 @@
         <f>AVERAGE(E20:E29)</f>
         <v>76500192.400000006</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="15">
         <f t="shared" ref="N11:N12" si="2">M11*0.000001</f>
         <v>76.500192400000003</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="15">
         <f>AVERAGE(F20:F29)</f>
         <v>48.4</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="15">
         <f t="shared" ref="P11:P12" si="3">O11-J11</f>
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>22</v>
       </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
         <v>78689036</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="19">
         <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="15">
         <f>AVERAGE(C37:C46)</f>
         <v>20.399999999999999</v>
       </c>
@@ -1181,7 +1482,7 @@
         <f>AVERAGE(D37:D46)</f>
         <v>139870</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>0.27973999999999999</v>
       </c>
@@ -1189,87 +1490,87 @@
         <f>AVERAGE(E37:E46)</f>
         <v>76507986.400000006</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="15">
         <f t="shared" si="2"/>
         <v>76.507986400000007</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="15">
         <f>AVERAGE(F37:F46)</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="P12" s="21">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="P12" s="15">
         <f t="shared" si="3"/>
-        <v>12.399999999999999</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>13</v>
       </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
         <v>78693420</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="19">
         <v>14</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>125</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="19">
         <v>1001300</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>79175356</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="19">
         <v>186</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>411</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="19">
         <v>19059500</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="19">
         <v>79800159</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="19">
         <v>1732</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1298,22 +1599,22 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>611</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>5314900</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="19">
         <v>81387449</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="19">
         <v>736</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1327,7 +1628,7 @@
         <f>AVERAGE(D13:D14)</f>
         <v>500650</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="15">
         <f t="shared" ref="L16:L18" si="4">K16*0.000002</f>
         <v>1.0012999999999999</v>
       </c>
@@ -1335,36 +1636,36 @@
         <f>AVERAGE(E13:E14)</f>
         <v>78934388</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="15">
         <f>M16*0.000001</f>
         <v>78.934387999999998</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="15">
         <f>AVERAGE(F13:F14)</f>
         <v>100</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="15">
         <f>O16-J16</f>
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>2321</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>28546400</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="19">
         <v>81945044</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="19">
         <v>3378</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1378,7 +1679,7 @@
         <f>AVERAGE(D30:D31)</f>
         <v>274650</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="15">
         <f t="shared" si="4"/>
         <v>0.54930000000000001</v>
       </c>
@@ -1386,36 +1687,36 @@
         <f>AVERAGE(E30:E31)</f>
         <v>78889602</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="15">
         <f t="shared" ref="N17:N18" si="5">M17*0.000001</f>
         <v>78.889601999999996</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="15">
         <f>AVERAGE(F30:F31)</f>
         <v>110</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="15">
         <f t="shared" ref="P17:P18" si="6">O17-J17</f>
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="19">
         <v>525</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="19">
         <v>12005400</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="19">
         <v>81945044</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="19">
         <v>1249</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -1429,7 +1730,7 @@
         <f>AVERAGE(D47:D48)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1437,86 +1738,86 @@
         <f>AVERAGE(E47:E48)</f>
         <v>78904127.5</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N18" s="15">
         <f t="shared" si="5"/>
         <v>78.904127500000001</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="15">
         <f>AVERAGE(F47:F48)</f>
         <v>95.5</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="15">
         <f t="shared" si="6"/>
         <v>26.5</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>8</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
         <v>5984</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
         <v>74293062</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>60</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>22</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>6505000</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>74913894</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <v>67</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -1545,28 +1846,28 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <v>75469879</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>13</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="15">
         <f>AVERAGE(C15:C16)</f>
         <v>511</v>
       </c>
@@ -1574,7 +1875,7 @@
         <f>AVERAGE(D15:D16)</f>
         <v>12187200</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="15">
         <f t="shared" ref="L22:L24" si="7">K22*0.000002</f>
         <v>24.374399999999998</v>
       </c>
@@ -1582,42 +1883,42 @@
         <f>AVERAGE(E15:E16)</f>
         <v>80593804</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="15">
         <f>M22*0.000001</f>
         <v>80.593803999999992</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="15">
         <f>AVERAGE(F15:F16)</f>
         <v>1234</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="15">
         <f>O22-J22</f>
         <v>723</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>29</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <v>75972623</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>35</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="15">
         <f>AVERAGE(C32:C33)</f>
         <v>512.5</v>
       </c>
@@ -1625,7 +1926,7 @@
         <f>AVERAGE(D32:D33)</f>
         <v>5423150</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="15">
         <f t="shared" si="7"/>
         <v>10.846299999999999</v>
       </c>
@@ -1633,42 +1934,42 @@
         <f>AVERAGE(E32:E33)</f>
         <v>80549900.5</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="15">
         <f t="shared" ref="N23:N24" si="8">M23*0.000001</f>
         <v>80.549900499999993</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="15">
         <f>AVERAGE(F32:F33)</f>
         <v>721.5</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="15">
         <f t="shared" ref="P23:P24" si="9">O23-J23</f>
         <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>14</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
         <v>76522019</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>25</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="15">
         <f>AVERAGE(C49:C50)</f>
         <v>526</v>
       </c>
@@ -1676,7 +1977,7 @@
         <f>AVERAGE(D49:D50)</f>
         <v>11528600</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="15">
         <f t="shared" si="7"/>
         <v>23.057199999999998</v>
       </c>
@@ -1684,86 +1985,86 @@
         <f>AVERAGE(E49:E50)</f>
         <v>80561691.5</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N24" s="15">
         <f t="shared" si="8"/>
         <v>80.561691499999995</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="15">
         <f>AVERAGE(F49:F50)</f>
         <v>702</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="15">
         <f t="shared" si="9"/>
         <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>12</v>
       </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
         <v>76529442</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="13">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>20</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
         <v>77037584</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="13">
         <v>51</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>39</v>
       </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
         <v>77562388</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="13">
         <v>105</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -1792,22 +2093,22 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>21</v>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
         <v>78093572</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -1821,7 +2122,7 @@
         <f>AVERAGE(D17:D18)</f>
         <v>20275900</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="15">
         <f t="shared" ref="L28:L30" si="10">K28*0.000002</f>
         <v>40.5518</v>
       </c>
@@ -1829,36 +2130,36 @@
         <f>AVERAGE(E17:E18)</f>
         <v>81945044</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="15">
         <f>M28*0.000001</f>
         <v>81.945043999999996</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="15">
         <f>AVERAGE(F17:F18)</f>
         <v>2313.5</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="15">
         <f>O28-J28</f>
         <v>890.5</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>22</v>
       </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
         <v>78607461</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>70</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -1872,7 +2173,7 @@
         <f>AVERAGE(D34:D35)</f>
         <v>45447800</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="15">
         <f t="shared" si="10"/>
         <v>90.895600000000002</v>
       </c>
@@ -1880,36 +2181,36 @@
         <f>AVERAGE(E34:E35)</f>
         <v>81944774</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="15">
         <f t="shared" ref="N29:N30" si="11">M29*0.000001</f>
         <v>81.944773999999995</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="15">
         <f>AVERAGE(F34:F35)</f>
         <v>3052.5</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="15">
         <f t="shared" ref="P29:P30" si="12">O29-J29</f>
         <v>1629.5</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>13</v>
       </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
         <v>78627498</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -1923,7 +2224,7 @@
         <f>AVERAGE(D51:D52)</f>
         <v>63286750</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="15">
         <f t="shared" si="10"/>
         <v>126.5735</v>
       </c>
@@ -1931,457 +2232,457 @@
         <f>AVERAGE(E51:E52)</f>
         <v>81953689</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="15">
         <f t="shared" si="11"/>
         <v>81.953688999999997</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="15">
         <f>AVERAGE(F51:F52)</f>
         <v>2953</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="15">
         <f t="shared" si="12"/>
         <v>1530</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>125</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>549300</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>79151706</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="13">
         <v>200</v>
       </c>
-      <c r="O31" s="23"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>411</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>4847900</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>79787954</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="13">
         <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>614</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>5998400</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>81311847</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="13">
         <v>923</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>2321</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>66714600</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>81944774</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>4440</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>525</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>24181000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>81944774</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="13">
         <v>1665</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>8</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
         <v>5744</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="14">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>18</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="14">
         <v>523400</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>74299678</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <v>22</v>
       </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
         <v>74921069</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="14">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>7</v>
       </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
         <v>75474148</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="14">
         <v>29</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="14">
         <v>875300</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>75975381</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="14">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <v>14</v>
       </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
         <v>76527100</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="14">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>12</v>
       </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
         <v>76540073</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>20</v>
       </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
         <v>77047943</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="14">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="14">
         <v>39</v>
       </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
         <v>77566336</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="14">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="14">
         <v>21</v>
       </c>
-      <c r="D45" s="17">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
         <v>78103471</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="14">
+        <v>22</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>78624665</v>
+      </c>
+      <c r="F46" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="17" t="s">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>78644439</v>
+      </c>
+      <c r="F47" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="17">
-        <v>22</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
-        <v>78624665</v>
-      </c>
-      <c r="F46" s="17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="17" t="s">
+      <c r="B48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14">
+        <v>125</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>79163816</v>
+      </c>
+      <c r="F48" s="14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B49" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="14">
+        <v>411</v>
+      </c>
+      <c r="D49" s="14">
+        <v>7432200</v>
+      </c>
+      <c r="E49" s="14">
+        <v>79799000</v>
+      </c>
+      <c r="F49" s="14">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
-        <v>78644439</v>
-      </c>
-      <c r="F47" s="17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="17" t="s">
+      <c r="C50" s="14">
+        <v>641</v>
+      </c>
+      <c r="D50" s="14">
+        <v>15625000</v>
+      </c>
+      <c r="E50" s="14">
+        <v>81324383</v>
+      </c>
+      <c r="F50" s="14">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="17">
-        <v>125</v>
-      </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
-        <v>79163816</v>
-      </c>
-      <c r="F48" s="17">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="17" t="s">
+      <c r="B51" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="14">
+        <v>2321</v>
+      </c>
+      <c r="D51" s="14">
+        <v>99852600</v>
+      </c>
+      <c r="E51" s="14">
+        <v>81953689</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="17">
-        <v>411</v>
-      </c>
-      <c r="D49" s="17">
-        <v>7432200</v>
-      </c>
-      <c r="E49" s="17">
-        <v>79799000</v>
-      </c>
-      <c r="F49" s="17">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="17">
-        <v>641</v>
-      </c>
-      <c r="D50" s="17">
-        <v>15625000</v>
-      </c>
-      <c r="E50" s="17">
-        <v>81324383</v>
-      </c>
-      <c r="F50" s="17">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="17">
-        <v>2321</v>
-      </c>
-      <c r="D51" s="17">
-        <v>99852600</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="B52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="14">
+        <v>525</v>
+      </c>
+      <c r="D52" s="14">
+        <v>26720900</v>
+      </c>
+      <c r="E52" s="14">
         <v>81953689</v>
       </c>
-      <c r="F51" s="17">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="17">
-        <v>525</v>
-      </c>
-      <c r="D52" s="17">
-        <v>26720900</v>
-      </c>
-      <c r="E52" s="17">
-        <v>81953689</v>
-      </c>
-      <c r="F52" s="17">
+      <c r="F52" s="14">
         <v>1552</v>
       </c>
     </row>
@@ -2402,9 +2703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB4B66A-B7D5-4E1C-9CF8-8D146690CEC0}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2445,51 +2746,51 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="18">
         <v>8</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="18">
         <v>1235235400</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="18">
         <v>32218</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="18">
         <v>1957</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="18">
         <v>18</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="18">
         <v>8555328100</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="18">
         <v>18723630</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="18">
         <v>222</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -2515,22 +2816,22 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="18">
         <v>22</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="18">
         <v>8036930600</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="18">
         <v>20168672</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="18">
         <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -2558,22 +2859,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="18">
         <v>7</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="18">
         <v>8895270600</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="18">
         <v>21532563</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="18">
         <v>2222</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2601,22 +2902,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="18">
         <v>29</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="18">
         <v>9377572600</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="18">
         <v>22748762</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="18">
         <v>2222</v>
       </c>
       <c r="I6" s="1"/>
@@ -2627,51 +2928,51 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="18">
         <v>14</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="18">
         <v>9242027100</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="18">
         <v>24069427</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="18">
         <v>2222</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="18">
         <v>12</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="18">
         <v>9146521200</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="18">
         <v>25286206</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="18">
         <v>2222</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -2697,22 +2998,22 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="18">
         <v>20</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="18">
         <v>9250191100</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="18">
         <v>26493654</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="18">
         <v>2222</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -2744,22 +3045,22 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="18">
         <v>39</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="18">
         <v>9101577300</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="18">
         <v>27729474</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="18">
         <v>2222</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -2791,22 +3092,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="18">
         <v>21</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="18">
         <v>9210962200</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="18">
         <v>28965552</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="18">
         <v>2222</v>
       </c>
       <c r="I11" s="1"/>
@@ -2817,51 +3118,51 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="18">
         <v>22</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="18">
         <v>8516921500</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="18">
         <v>30191932</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="18">
         <v>2222</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="18">
         <v>13</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="18">
         <v>13486050200</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="18">
         <v>30191932</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="18">
         <v>2285</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -2887,22 +3188,22 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="18">
         <v>125</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="18">
         <v>14378892300</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="18">
         <v>30191932</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="18">
         <v>2285</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2934,22 +3235,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="18">
         <v>411</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="18">
         <v>140893421400</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="18">
         <v>30191932</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="18">
         <v>2604</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2981,22 +3282,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="18">
         <v>641</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="18">
         <v>144746863500</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="18">
         <v>30191932</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="18">
         <v>2604</v>
       </c>
       <c r="H16" s="9"/>
@@ -3008,51 +3309,51 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="18">
         <v>2321</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="18">
         <v>389352382500</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="18">
         <v>30191932</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="18">
         <v>2757</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="18">
         <v>525</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="18">
         <v>444826582800</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="18">
         <v>30191932</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="18">
         <v>2757</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -3078,22 +3379,22 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>8</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>9328400</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>27879</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="12">
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3125,22 +3426,22 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>18</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>359020700</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>18721544</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="12">
         <v>75</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3172,22 +3473,22 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>22</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>15270990000</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>20169241</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="12">
         <v>3241</v>
       </c>
       <c r="I21" s="1"/>
@@ -3198,51 +3499,51 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>7</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>15696289600</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>21523115</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="12">
         <v>3339</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>29</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>384851800</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>22755166</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="12">
         <v>55</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -3268,22 +3569,22 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>14</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>16938829600</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>24065349</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="12">
         <v>3323</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -3315,22 +3616,22 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>12</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>247284900</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>25276389</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="12">
         <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
@@ -3362,22 +3663,22 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>20</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>302956500</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="12">
         <v>26482703</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="12">
         <v>57</v>
       </c>
       <c r="I26" s="1"/>
@@ -3388,22 +3689,22 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>39</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>219221900</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>27719391</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="12">
         <v>40</v>
       </c>
       <c r="I27" s="1"/>
@@ -3414,69 +3715,69 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>21</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>261469700</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>28954722</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="12">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>22</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>170304000</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>30189187</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="12">
         <v>32</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>13</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>1104390100</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>30189187</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="12">
         <v>130</v>
       </c>
       <c r="H30" s="3"/>
@@ -3488,22 +3789,22 @@
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>125</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>1009760000</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>30189187</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="12">
         <v>130</v>
       </c>
       <c r="I31" s="1"/>
@@ -3514,22 +3815,22 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>411</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>29083263800</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>30189187</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="12">
         <v>440</v>
       </c>
       <c r="I32" s="1"/>
@@ -3540,22 +3841,22 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>641</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>45748836100</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>30189187</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="12">
         <v>650</v>
       </c>
       <c r="I33" s="1"/>
@@ -3566,22 +3867,22 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>2321</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="12">
         <v>477828134100</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>30189187</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="12">
         <v>2322</v>
       </c>
       <c r="I34" s="1"/>
@@ -3592,22 +3893,22 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>525</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="12">
         <v>191583081600</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>30189187</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="12">
         <v>965</v>
       </c>
     </row>
@@ -3630,9 +3931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94C1934-A653-4643-B4F9-1CD5C996F8F8}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="E70:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3668,61 +3969,61 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="19">
         <v>10</v>
       </c>
-      <c r="D2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="28">
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="19">
         <v>18</v>
       </c>
-      <c r="D3" s="28">
-        <v>0</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
         <v>74297045</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="19">
         <v>36</v>
       </c>
-      <c r="D4" s="28">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
         <v>74913813</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -3745,19 +4046,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="19">
         <v>57</v>
       </c>
-      <c r="D5" s="28">
-        <v>0</v>
-      </c>
-      <c r="E5" s="28">
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
         <v>75483805</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -3771,7 +4072,7 @@
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <f>I5*0.000002</f>
         <v>0</v>
       </c>
@@ -3779,25 +4080,25 @@
         <f>E2</f>
         <v>5000</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <f>K5*0.000001</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="19">
         <v>41</v>
       </c>
-      <c r="D6" s="28">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>75536712</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -3811,7 +4112,7 @@
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="15">
         <f t="shared" ref="J6:J9" si="0">I6*0.000002</f>
         <v>0</v>
       </c>
@@ -3819,25 +4120,25 @@
         <f>E19</f>
         <v>5984</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="15">
         <f t="shared" ref="L6:L9" si="1">K6*0.000001</f>
         <v>5.9839999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="19">
         <v>38</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="19">
         <v>1008400</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="19">
         <v>76070474</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -3850,7 +4151,7 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3858,25 +4159,25 @@
         <f>E36</f>
         <v>5744</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>5.744E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="19">
         <v>62</v>
       </c>
-      <c r="D8" s="28">
-        <v>0</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
         <v>76602137</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -3890,7 +4191,7 @@
         <f>D53</f>
         <v>1235235400</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>2470.4708000000001</v>
       </c>
@@ -3898,25 +4199,25 @@
         <f>E53</f>
         <v>32218</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>3.2217999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="19">
         <v>35</v>
       </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
         <v>77131200</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -3930,7 +4231,7 @@
         <f>D70</f>
         <v>9328400</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <f t="shared" si="0"/>
         <v>18.6568</v>
       </c>
@@ -3938,67 +4239,67 @@
         <f>E70</f>
         <v>27879</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>2.7878999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="19">
         <v>39</v>
       </c>
-      <c r="D10" s="28">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
         <v>77651179</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="19">
         <v>23</v>
       </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
         <v>78178665</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>22</v>
       </c>
-      <c r="D12" s="28">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
         <v>78689036</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -4021,105 +4322,105 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="19">
         <v>13</v>
       </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
         <v>78693420</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="15">
         <f>AVERAGE(C3:C12)</f>
         <v>37.1</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="15">
         <f>AVERAGE(D3:D12)</f>
         <v>100840</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="15">
         <f>I13*0.000002</f>
         <v>0.20168</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="15">
         <f>AVERAGE(E3:E12)</f>
         <v>76455406.599999994</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="15">
         <f>K13*0.000001</f>
         <v>76.455406599999989</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="19">
         <v>125</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="19">
         <v>1001300</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>79175356</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="15">
         <f>AVERAGE(C20:C29)</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <f>AVERAGE(D20:D29)</f>
         <v>650500</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="15">
         <f t="shared" ref="J14" si="2">I14*0.000002</f>
         <v>1.3009999999999999</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="15">
         <f>AVERAGE(E20:E29)</f>
         <v>76500192.400000006</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="15">
         <f t="shared" ref="L14" si="3">K14*0.000001</f>
         <v>76.500192400000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="19">
         <v>411</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="19">
         <v>19059500</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="19">
         <v>79800159</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="15">
         <f>AVERAGE(C37:C46)</f>
         <v>20.399999999999999</v>
       </c>
@@ -4127,39 +4428,39 @@
         <f>AVERAGE(D37:D46)</f>
         <v>139870</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="15">
         <f>I15*0.000002</f>
         <v>0.27973999999999999</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="15">
         <f>AVERAGE(E37:E46)</f>
         <v>76507986.400000006</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="15">
         <f>K15*0.000001</f>
         <v>76.507986400000007</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>611</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>5314900</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="19">
         <v>81387449</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="15">
         <f>AVERAGE(C54:C63)</f>
         <v>20.399999999999999</v>
       </c>
@@ -4167,39 +4468,39 @@
         <f>AVERAGE(D54:D63)</f>
         <v>8933330230</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="15">
         <f>I16*0.000001</f>
         <v>8933.3302299999996</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="15">
         <f>AVERAGE(E54:E63)</f>
         <v>24590987.199999999</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="15">
         <f>K16*0.000001</f>
         <v>24.590987199999997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="19">
         <v>2321</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>28546400</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="19">
         <v>81945044</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="15">
         <f>AVERAGE(C71:C80)</f>
         <v>20.399999999999999</v>
       </c>
@@ -4207,75 +4508,75 @@
         <f>AVERAGE(D71:D80)</f>
         <v>4985121870</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="15">
         <f>I17*0.000001</f>
         <v>4985.1218699999999</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="15">
         <f>AVERAGE(E71:E80)</f>
         <v>24585680.699999999</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="15">
         <f>K17*0.000001</f>
         <v>24.585680699999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="19">
         <v>525</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="19">
         <v>12005400</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="19">
         <v>81945044</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="13">
         <v>8</v>
       </c>
-      <c r="D19" s="16">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
         <v>5984</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="13">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
         <v>74293062</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -4298,19 +4599,19 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="13">
         <v>22</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="13">
         <v>6505000</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="13">
         <v>74913894</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -4324,33 +4625,33 @@
         <f>AVERAGE(D13:D14)</f>
         <v>500650</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="15">
         <f t="shared" ref="J21:J22" si="4">I21*0.000002</f>
         <v>1.0012999999999999</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="15">
         <f>AVERAGE(D13:D14)</f>
         <v>500650</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="15">
         <f>K21*0.000001</f>
         <v>0.50064999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <v>75469879</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -4364,33 +4665,33 @@
         <f>AVERAGE(D30:D31)</f>
         <v>274650</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="15">
         <f t="shared" si="4"/>
         <v>0.54930000000000001</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="15">
         <f>AVERAGE(E30:E31)</f>
         <v>78889602</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="15">
         <f t="shared" ref="L22:L23" si="5">K22*0.000001</f>
         <v>78.889601999999996</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>29</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
         <v>75972623</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -4404,33 +4705,33 @@
         <f>AVERAGE(D47:D48)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="15">
         <f>I23*0.000002</f>
         <v>0</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="15">
         <f>AVERAGE(E47:E48)</f>
         <v>78904127.5</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="15">
         <f t="shared" si="5"/>
         <v>78.904127500000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>14</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
         <v>76522019</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -4444,33 +4745,33 @@
         <f>AVERAGE(D64:D65)</f>
         <v>13932471250</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="15">
         <f>I24*0.000001</f>
         <v>13932.471249999999</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="15">
         <f>AVERAGE(E64:E65)</f>
         <v>30191932</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="15">
         <f>K24*0.000001</f>
         <v>30.191931999999998</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>12</v>
       </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
         <v>76529442</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -4484,75 +4785,75 @@
         <f>AVERAGE(D81:D82)</f>
         <v>1057075050</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="15">
         <f>I25*0.000001</f>
         <v>1057.0750499999999</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="15">
         <f>AVERAGE(E64:E65)</f>
         <v>30191932</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="15">
         <f>K25*0.000001</f>
         <v>30.191931999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>20</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
         <v>77037584</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>39</v>
       </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
         <v>77562388</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>21</v>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
         <v>78093572</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -4575,145 +4876,145 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>22</v>
       </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
         <v>78607461</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="15">
         <f>AVERAGE(C15:C16)</f>
         <v>511</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="15">
         <f>AVERAGE(D15:D16)</f>
         <v>12187200</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="15">
         <f t="shared" ref="J29:J31" si="6">I29*0.000002</f>
         <v>24.374399999999998</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="15">
         <f>AVERAGE(E15:E16)</f>
         <v>80593804</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="15">
         <f>K29*0.000001</f>
         <v>80.593803999999992</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>13</v>
       </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
         <v>78627498</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="15">
         <f>AVERAGE(C32:C33)</f>
         <v>512.5</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="15">
         <f>AVERAGE(D32:D33)</f>
         <v>5423150</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="15">
         <f t="shared" si="6"/>
         <v>10.846299999999999</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="15">
         <f>AVERAGE(E32:E33)</f>
         <v>80549900.5</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="15">
         <f t="shared" ref="L30:L31" si="7">K30*0.000001</f>
         <v>80.549900499999993</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>125</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>549300</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="13">
         <v>79151706</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="15">
         <f>AVERAGE(C49:C50)</f>
         <v>526</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <f>AVERAGE(D49:D50)</f>
         <v>11528600</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="15">
         <f t="shared" si="6"/>
         <v>23.057199999999998</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="15">
         <f>AVERAGE(E49:E50)</f>
         <v>80561691.5</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <f t="shared" si="7"/>
         <v>80.561691499999995</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>411</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>4847900</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="13">
         <v>79787954</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="15">
         <f>AVERAGE(C66:C67)</f>
         <v>526</v>
       </c>
@@ -4721,39 +5022,39 @@
         <f>AVERAGE(D66:D67)</f>
         <v>142820142450</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="15">
         <f>I32*0.000001</f>
         <v>142820.14244999998</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="15">
         <f>AVERAGE(E66:E67)</f>
         <v>30191932</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="15">
         <f>K32*0.000001</f>
         <v>30.191931999999998</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>614</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>5998400</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="13">
         <v>81311847</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="15">
         <f>AVERAGE(C83:C84)</f>
         <v>526</v>
       </c>
@@ -4761,75 +5062,75 @@
         <f>AVERAGE(D83:D84)</f>
         <v>37416049950</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="15">
         <f>I33*0.000001</f>
         <v>37416.049950000001</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="15">
         <f>AVERAGE(E83:E84)</f>
         <v>30189187</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="15">
         <f>K33*0.000001</f>
         <v>30.189186999999997</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>2321</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>66714600</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="13">
         <v>81944774</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>525</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>24181000</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="13">
         <v>81944774</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>8</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
         <v>5744</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -4852,19 +5153,19 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>18</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="14">
         <v>523400</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>74299678</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -4878,33 +5179,33 @@
         <f>AVERAGE(D17:D18)</f>
         <v>20275900</v>
       </c>
-      <c r="J37" s="21">
-        <f t="shared" ref="J37:J39" si="8">I37*0.000002</f>
+      <c r="J37" s="15">
+        <f t="shared" ref="J37:J38" si="8">I37*0.000002</f>
         <v>40.5518</v>
       </c>
       <c r="K37" s="4">
         <f>AVERAGE(E17:E18)</f>
         <v>81945044</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="15">
         <f>K37*0.000001</f>
         <v>81.945043999999996</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <v>22</v>
       </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
         <v>74921069</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -4918,7 +5219,7 @@
         <f>AVERAGE(D34:D35)</f>
         <v>45447800</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="15">
         <f t="shared" si="8"/>
         <v>90.895600000000002</v>
       </c>
@@ -4926,25 +5227,25 @@
         <f>AVERAGE(E34:E35)</f>
         <v>81944774</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="15">
         <f t="shared" ref="L38:L39" si="9">K38*0.000001</f>
         <v>81.944773999999995</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>7</v>
       </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
         <v>75474148</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -4958,7 +5259,7 @@
         <f>AVERAGE(D51:D52)</f>
         <v>63286750</v>
       </c>
-      <c r="J39" s="21">
+      <c r="J39" s="15">
         <f>I39*0.000002</f>
         <v>126.5735</v>
       </c>
@@ -4966,25 +5267,25 @@
         <f>AVERAGE(E51:E52)</f>
         <v>81953689</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="15">
         <f t="shared" si="9"/>
         <v>81.953688999999997</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="14">
         <v>29</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="14">
         <v>875300</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>75975381</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -4998,7 +5299,7 @@
         <f>AVERAGE(D68:D69)</f>
         <v>417089482650</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="15">
         <f>I40*0.000001</f>
         <v>417089.48264999996</v>
       </c>
@@ -5006,25 +5307,25 @@
         <f>AVERAGE(E68:E69)</f>
         <v>30191932</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="15">
         <f>K40*0.000001</f>
         <v>30.191931999999998</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <v>14</v>
       </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
         <v>76527100</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -5038,7 +5339,7 @@
         <f>AVERAGE(D85:D86)</f>
         <v>334705607850</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="15">
         <f>I41*0.000001</f>
         <v>334705.60784999997</v>
       </c>
@@ -5046,66 +5347,66 @@
         <f>AVERAGE(E85:E86)</f>
         <v>30189187</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="15">
         <f>K41*0.000001</f>
         <v>30.189186999999997</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>12</v>
       </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14">
         <v>76540073</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>20</v>
       </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
         <v>77047943</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="14">
         <v>39</v>
       </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
         <v>77566336</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -5125,19 +5426,19 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="14">
         <v>21</v>
       </c>
-      <c r="D45" s="17">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
         <v>78103471</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -5147,7 +5448,7 @@
         <f>AVERAGE(D2:D18)</f>
         <v>3937405.8823529412</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="15">
         <f>I45*0.000001</f>
         <v>3.937405882352941</v>
       </c>
@@ -5155,25 +5456,25 @@
         <f>AVERAGE(E2:E18)</f>
         <v>73382678.705882356</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="15">
         <f>K45*0.000001</f>
         <v>73.382678705882356</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="14">
         <v>22</v>
       </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
         <v>78624665</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -5183,7 +5484,7 @@
         <f>AVERAGE(D19:D35)</f>
         <v>6399776.4705882352</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="15">
         <f>I46*0.000001</f>
         <v>6.3997764705882352</v>
       </c>
@@ -5191,25 +5492,25 @@
         <f>AVERAGE(E19:E35)</f>
         <v>73398615.35294117</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="15">
         <f t="shared" ref="L46:L47" si="10">K46*0.000001</f>
         <v>73.398615352941164</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="14">
         <v>13</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
         <v>78644439</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -5219,7 +5520,7 @@
         <f>AVERAGE(D36:D52)</f>
         <v>8884082.3529411759</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="15">
         <f>I47*0.000001</f>
         <v>8.8840823529411761</v>
       </c>
@@ -5227,25 +5528,25 @@
         <f>AVERAGE(E53:E69)</f>
         <v>25123157.764705881</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="15">
         <f t="shared" si="10"/>
         <v>25.12315776470588</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="14">
         <v>125</v>
       </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
         <v>79163816</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -5255,33 +5556,33 @@
         <f>AVERAGE(D53:D69)</f>
         <v>72838395905.882355</v>
       </c>
-      <c r="J48" s="21">
-        <f t="shared" ref="J46:J49" si="11">I48*0.000001</f>
+      <c r="J48" s="15">
+        <f t="shared" ref="J48:J49" si="11">I48*0.000001</f>
         <v>72838.395905882353</v>
       </c>
       <c r="K48" s="4">
         <f>AVERAGE(E76:E77)</f>
         <v>25879546</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="15">
         <f>K48*0.000001</f>
         <v>25.879545999999998</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="14">
         <v>411</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="14">
         <v>7432200</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="14">
         <v>79799000</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -5291,7 +5592,7 @@
         <f>AVERAGE(D70:D86)</f>
         <v>46836353694.117645</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="15">
         <f t="shared" si="11"/>
         <v>46836.353694117643</v>
       </c>
@@ -5299,66 +5600,66 @@
         <f>AVERAGE(E70:E86)</f>
         <v>25118812.235294119</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="15">
         <f>K49*0.000001</f>
         <v>25.118812235294119</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="14">
         <v>641</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="14">
         <v>15625000</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="14">
         <v>81324383</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="14">
         <v>2321</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="14">
         <v>99852600</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="14">
         <v>81953689</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="14">
         <v>525</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="14">
         <v>26720900</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="14">
         <v>81953689</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -5378,19 +5679,19 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="18">
         <v>8</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="18">
         <v>1235235400</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="18">
         <v>32218</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -5400,7 +5701,7 @@
         <f>SUM(D2:D18)</f>
         <v>66935900</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="15">
         <f>I53*0.000000001</f>
         <v>6.6935900000000007E-2</v>
       </c>
@@ -5408,25 +5709,25 @@
         <f>SUM(E2:E18)</f>
         <v>1247505538</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L53" s="15">
         <f>K53*0.000001</f>
         <v>1247.5055379999999</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="18">
         <v>18</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="18">
         <v>8555328100</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="18">
         <v>18723630</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -5436,7 +5737,7 @@
         <f>SUM(D19:D35)</f>
         <v>108796200</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="15">
         <f t="shared" ref="J54:J57" si="12">I54*0.000000001</f>
         <v>0.10879620000000001</v>
       </c>
@@ -5444,25 +5745,25 @@
         <f>SUM(E19:E35)</f>
         <v>1247776461</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="15">
         <f t="shared" ref="L54:L55" si="13">K54*0.000001</f>
         <v>1247.7764609999999</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="18">
         <v>22</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="18">
         <v>8036930600</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="18">
         <v>20168672</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -5472,7 +5773,7 @@
         <f>SUM(D36:D52)</f>
         <v>151029400</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="15">
         <f>I55*0.000000001</f>
         <v>0.15102940000000001</v>
       </c>
@@ -5480,25 +5781,25 @@
         <f>SUM(E36:E52)</f>
         <v>1247924624</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="15">
         <f t="shared" si="13"/>
         <v>1247.924624</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="27">
+      <c r="C56" s="18">
         <v>7</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="18">
         <v>8895270600</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="18">
         <v>21532563</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -5508,7 +5809,7 @@
         <f>SUM(D53:D69)</f>
         <v>1238252730400</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="15">
         <f>I56*0.000000001</f>
         <v>1238.2527304</v>
       </c>
@@ -5516,25 +5817,25 @@
         <f>SUM(E53:E69)</f>
         <v>427093682</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="15">
         <f>K56*0.000001</f>
         <v>427.093682</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="18">
         <v>29</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="18">
         <v>9377572600</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="18">
         <v>22748762</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -5544,7 +5845,7 @@
         <f>SUM(D70:D86)</f>
         <v>796218012800</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="15">
         <f t="shared" si="12"/>
         <v>796.2180128</v>
       </c>
@@ -5552,501 +5853,501 @@
         <f>SUM(E70:E86)</f>
         <v>427019808</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L57" s="15">
         <f>K57*0.000001</f>
         <v>427.01980799999995</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="27">
+      <c r="C58" s="18">
         <v>14</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="18">
         <v>9242027100</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="18">
         <v>24069427</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="27">
+      <c r="C59" s="18">
         <v>12</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="18">
         <v>9146521200</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="18">
         <v>25286206</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="27">
+      <c r="C60" s="18">
         <v>20</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="18">
         <v>9250191100</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="18">
         <v>26493654</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="18">
         <v>39</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="18">
         <v>9101577300</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="18">
         <v>27729474</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="18">
         <v>21</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="18">
         <v>9210962200</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="18">
         <v>28965552</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="18">
         <v>22</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="18">
         <v>8516921500</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="27">
+      <c r="C64" s="18">
         <v>13</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="18">
         <v>13486050200</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="27">
+      <c r="C65" s="18">
         <v>125</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="18">
         <v>14378892300</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="27">
+      <c r="C66" s="18">
         <v>411</v>
       </c>
-      <c r="D66" s="27">
+      <c r="D66" s="18">
         <v>140893421400</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="27">
+      <c r="C67" s="18">
         <v>641</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="18">
         <v>144746863500</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="27">
+      <c r="C68" s="18">
         <v>2321</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="18">
         <v>389352382500</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="27">
+      <c r="C69" s="18">
         <v>525</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="18">
         <v>444826582800</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="18">
         <v>30191932</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="12">
         <v>8</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="12">
         <v>9328400</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="12">
         <v>27879</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="12">
         <v>18</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="12">
         <v>359020700</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <v>18721544</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="12">
         <v>22</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="12">
         <v>15270990000</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <v>20169241</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="12">
         <v>7</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="12">
         <v>15696289600</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <v>21523115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="12">
         <v>29</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="12">
         <v>384851800</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="12">
         <v>22755166</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="12">
         <v>14</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="12">
         <v>16938829600</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="12">
         <v>24065349</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="12">
         <v>12</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="12">
         <v>247284900</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="12">
         <v>25276389</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="12">
         <v>20</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="12">
         <v>302956500</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="12">
         <v>26482703</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="12">
         <v>39</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="12">
         <v>219221900</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="12">
         <v>27719391</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="12">
         <v>21</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="12">
         <v>261469700</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="12">
         <v>28954722</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="12">
         <v>22</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="12">
         <v>170304000</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="12">
         <v>13</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="12">
         <v>1104390100</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="12">
         <v>125</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="12">
         <v>1009760000</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="12">
         <v>411</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="12">
         <v>29083263800</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="12">
         <v>641</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="12">
         <v>45748836100</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="12">
         <v>2321</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="12">
         <v>477828134100</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="12">
         <v>30189187</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="12">
         <v>525</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="12">
         <v>191583081600</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="12">
         <v>30189187</v>
       </c>
     </row>
@@ -6062,4 +6363,2183 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610B93CC-4611-41B9-99E8-33D1515D3C3C}">
+  <dimension ref="A1:AF47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.69140625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="4.69140625" customWidth="1"/>
+    <col min="13" max="22" width="9.69140625" customWidth="1"/>
+    <col min="23" max="25" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="61"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
+      <c r="B2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="46">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34">
+        <v>10</v>
+      </c>
+      <c r="D3" s="35">
+        <v>10</v>
+      </c>
+      <c r="E3" s="36">
+        <v>10</v>
+      </c>
+      <c r="F3" s="47">
+        <v>10</v>
+      </c>
+      <c r="G3" s="54">
+        <v>12</v>
+      </c>
+      <c r="H3" s="30">
+        <v>17</v>
+      </c>
+      <c r="I3" s="55">
+        <v>11</v>
+      </c>
+      <c r="J3" s="54">
+        <f>G3-B3</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="30">
+        <f t="shared" ref="K3:L3" si="0">H3-C3</f>
+        <v>7</v>
+      </c>
+      <c r="L3" s="55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30">
+        <v>0</v>
+      </c>
+      <c r="O3" s="31">
+        <v>0</v>
+      </c>
+      <c r="P3" s="32">
+        <v>1235235400</v>
+      </c>
+      <c r="Q3" s="62">
+        <v>9328400</v>
+      </c>
+      <c r="R3" s="54">
+        <v>5000</v>
+      </c>
+      <c r="S3" s="30">
+        <v>5984</v>
+      </c>
+      <c r="T3" s="31">
+        <v>5744</v>
+      </c>
+      <c r="U3" s="32">
+        <v>32218</v>
+      </c>
+      <c r="V3" s="33">
+        <v>27879</v>
+      </c>
+      <c r="W3" s="67">
+        <f>M3*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="68">
+        <f t="shared" ref="X3:AA3" si="1">N3*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="70">
+        <f t="shared" si="1"/>
+        <v>1235.2354</v>
+      </c>
+      <c r="AA3" s="71">
+        <f t="shared" si="1"/>
+        <v>9.3284000000000002</v>
+      </c>
+      <c r="AB3" s="67">
+        <f>R3*0.000001</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC3" s="68">
+        <f t="shared" ref="AC3:AF3" si="2">S3*0.000001</f>
+        <v>5.9839999999999997E-3</v>
+      </c>
+      <c r="AD3" s="69">
+        <f t="shared" si="2"/>
+        <v>5.744E-3</v>
+      </c>
+      <c r="AE3" s="70">
+        <f t="shared" si="2"/>
+        <v>3.2217999999999997E-2</v>
+      </c>
+      <c r="AF3" s="71">
+        <f t="shared" si="2"/>
+        <v>2.7878999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="46">
+        <v>18</v>
+      </c>
+      <c r="C4" s="34">
+        <v>18</v>
+      </c>
+      <c r="D4" s="35">
+        <v>18</v>
+      </c>
+      <c r="E4" s="36">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47">
+        <v>18</v>
+      </c>
+      <c r="G4" s="54">
+        <v>20</v>
+      </c>
+      <c r="H4" s="30">
+        <v>60</v>
+      </c>
+      <c r="I4" s="55">
+        <v>34</v>
+      </c>
+      <c r="J4" s="54">
+        <f t="shared" ref="J4:J19" si="3">G4-B4</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="30">
+        <f t="shared" ref="K4:K19" si="4">H4-C4</f>
+        <v>42</v>
+      </c>
+      <c r="L4" s="55">
+        <f t="shared" ref="L4:L19" si="5">I4-D4</f>
+        <v>16</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30">
+        <v>0</v>
+      </c>
+      <c r="O4" s="31">
+        <v>523400</v>
+      </c>
+      <c r="P4" s="32">
+        <v>8555328100</v>
+      </c>
+      <c r="Q4" s="62">
+        <v>359020700</v>
+      </c>
+      <c r="R4" s="54">
+        <v>74297045</v>
+      </c>
+      <c r="S4" s="30">
+        <v>74293062</v>
+      </c>
+      <c r="T4" s="31">
+        <v>74299678</v>
+      </c>
+      <c r="U4" s="32">
+        <v>18723630</v>
+      </c>
+      <c r="V4" s="33">
+        <v>18721544</v>
+      </c>
+      <c r="W4" s="67">
+        <f t="shared" ref="W4:W19" si="6">M4*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="68">
+        <f t="shared" ref="X4:X19" si="7">N4*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="69">
+        <f t="shared" ref="Y4:Y19" si="8">O4*0.000001</f>
+        <v>0.52339999999999998</v>
+      </c>
+      <c r="Z4" s="70">
+        <f t="shared" ref="Z4:Z19" si="9">P4*0.000001</f>
+        <v>8555.3280999999988</v>
+      </c>
+      <c r="AA4" s="71">
+        <f t="shared" ref="AA4:AA19" si="10">Q4*0.000001</f>
+        <v>359.02069999999998</v>
+      </c>
+      <c r="AB4" s="67">
+        <f t="shared" ref="AB4:AB19" si="11">R4*0.000001</f>
+        <v>74.297044999999997</v>
+      </c>
+      <c r="AC4" s="68">
+        <f t="shared" ref="AC4:AC19" si="12">S4*0.000001</f>
+        <v>74.293061999999992</v>
+      </c>
+      <c r="AD4" s="69">
+        <f t="shared" ref="AD4:AD19" si="13">T4*0.000001</f>
+        <v>74.299678</v>
+      </c>
+      <c r="AE4" s="70">
+        <f t="shared" ref="AE4:AE19" si="14">U4*0.000001</f>
+        <v>18.72363</v>
+      </c>
+      <c r="AF4" s="71">
+        <f t="shared" ref="AF4:AF19" si="15">V4*0.000001</f>
+        <v>18.721543999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="48">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34">
+        <v>22</v>
+      </c>
+      <c r="D5" s="35">
+        <v>22</v>
+      </c>
+      <c r="E5" s="36">
+        <v>22</v>
+      </c>
+      <c r="F5" s="47">
+        <v>22</v>
+      </c>
+      <c r="G5" s="54">
+        <v>49</v>
+      </c>
+      <c r="H5" s="30">
+        <v>67</v>
+      </c>
+      <c r="I5" s="55">
+        <v>35</v>
+      </c>
+      <c r="J5" s="54">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="L5" s="55">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M5" s="54">
+        <v>0</v>
+      </c>
+      <c r="N5" s="30">
+        <v>6505000</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>8036930600</v>
+      </c>
+      <c r="Q5" s="62">
+        <v>15270990000</v>
+      </c>
+      <c r="R5" s="54">
+        <v>74913813</v>
+      </c>
+      <c r="S5" s="30">
+        <v>74913894</v>
+      </c>
+      <c r="T5" s="31">
+        <v>74921069</v>
+      </c>
+      <c r="U5" s="32">
+        <v>20168672</v>
+      </c>
+      <c r="V5" s="33">
+        <v>20169241</v>
+      </c>
+      <c r="W5" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="68">
+        <f t="shared" si="7"/>
+        <v>6.5049999999999999</v>
+      </c>
+      <c r="Y5" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="70">
+        <f t="shared" si="9"/>
+        <v>8036.9305999999997</v>
+      </c>
+      <c r="AA5" s="71">
+        <f t="shared" si="10"/>
+        <v>15270.99</v>
+      </c>
+      <c r="AB5" s="67">
+        <f t="shared" si="11"/>
+        <v>74.91381299999999</v>
+      </c>
+      <c r="AC5" s="68">
+        <f t="shared" si="12"/>
+        <v>74.913893999999999</v>
+      </c>
+      <c r="AD5" s="69">
+        <f t="shared" si="13"/>
+        <v>74.921069000000003</v>
+      </c>
+      <c r="AE5" s="70">
+        <f t="shared" si="14"/>
+        <v>20.168672000000001</v>
+      </c>
+      <c r="AF5" s="71">
+        <f t="shared" si="15"/>
+        <v>20.169241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="48">
+        <v>57</v>
+      </c>
+      <c r="C6" s="34">
+        <v>7</v>
+      </c>
+      <c r="D6" s="35">
+        <v>7</v>
+      </c>
+      <c r="E6" s="36">
+        <v>7</v>
+      </c>
+      <c r="F6" s="47">
+        <v>7</v>
+      </c>
+      <c r="G6" s="54">
+        <v>113</v>
+      </c>
+      <c r="H6" s="30">
+        <v>13</v>
+      </c>
+      <c r="I6" s="55">
+        <v>10</v>
+      </c>
+      <c r="J6" s="54">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="55">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="54">
+        <v>0</v>
+      </c>
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="31">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>8895270600</v>
+      </c>
+      <c r="Q6" s="62">
+        <v>15696289600</v>
+      </c>
+      <c r="R6" s="54">
+        <v>75483805</v>
+      </c>
+      <c r="S6" s="30">
+        <v>75469879</v>
+      </c>
+      <c r="T6" s="31">
+        <v>75474148</v>
+      </c>
+      <c r="U6" s="32">
+        <v>21532563</v>
+      </c>
+      <c r="V6" s="33">
+        <v>21523115</v>
+      </c>
+      <c r="W6" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="70">
+        <f t="shared" si="9"/>
+        <v>8895.2705999999998</v>
+      </c>
+      <c r="AA6" s="71">
+        <f t="shared" si="10"/>
+        <v>15696.2896</v>
+      </c>
+      <c r="AB6" s="67">
+        <f t="shared" si="11"/>
+        <v>75.48380499999999</v>
+      </c>
+      <c r="AC6" s="68">
+        <f t="shared" si="12"/>
+        <v>75.469878999999992</v>
+      </c>
+      <c r="AD6" s="69">
+        <f t="shared" si="13"/>
+        <v>75.474148</v>
+      </c>
+      <c r="AE6" s="70">
+        <f t="shared" si="14"/>
+        <v>21.532563</v>
+      </c>
+      <c r="AF6" s="71">
+        <f t="shared" si="15"/>
+        <v>21.523115000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="48">
+        <v>41</v>
+      </c>
+      <c r="C7" s="34">
+        <v>29</v>
+      </c>
+      <c r="D7" s="35">
+        <v>29</v>
+      </c>
+      <c r="E7" s="36">
+        <v>29</v>
+      </c>
+      <c r="F7" s="47">
+        <v>29</v>
+      </c>
+      <c r="G7" s="54">
+        <v>63</v>
+      </c>
+      <c r="H7" s="30">
+        <v>35</v>
+      </c>
+      <c r="I7" s="55">
+        <v>34</v>
+      </c>
+      <c r="J7" s="54">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="55">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="54">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30">
+        <v>0</v>
+      </c>
+      <c r="O7" s="31">
+        <v>875300</v>
+      </c>
+      <c r="P7" s="32">
+        <v>9377572600</v>
+      </c>
+      <c r="Q7" s="62">
+        <v>384851800</v>
+      </c>
+      <c r="R7" s="54">
+        <v>75536712</v>
+      </c>
+      <c r="S7" s="30">
+        <v>75972623</v>
+      </c>
+      <c r="T7" s="31">
+        <v>75975381</v>
+      </c>
+      <c r="U7" s="32">
+        <v>22748762</v>
+      </c>
+      <c r="V7" s="33">
+        <v>22755166</v>
+      </c>
+      <c r="W7" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="69">
+        <f t="shared" si="8"/>
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="Z7" s="70">
+        <f t="shared" si="9"/>
+        <v>9377.5725999999995</v>
+      </c>
+      <c r="AA7" s="71">
+        <f t="shared" si="10"/>
+        <v>384.85179999999997</v>
+      </c>
+      <c r="AB7" s="67">
+        <f t="shared" si="11"/>
+        <v>75.536711999999994</v>
+      </c>
+      <c r="AC7" s="68">
+        <f t="shared" si="12"/>
+        <v>75.972622999999999</v>
+      </c>
+      <c r="AD7" s="69">
+        <f t="shared" si="13"/>
+        <v>75.975380999999999</v>
+      </c>
+      <c r="AE7" s="70">
+        <f t="shared" si="14"/>
+        <v>22.748761999999999</v>
+      </c>
+      <c r="AF7" s="71">
+        <f t="shared" si="15"/>
+        <v>22.755165999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="48">
+        <v>38</v>
+      </c>
+      <c r="C8" s="34">
+        <v>14</v>
+      </c>
+      <c r="D8" s="35">
+        <v>14</v>
+      </c>
+      <c r="E8" s="36">
+        <v>14</v>
+      </c>
+      <c r="F8" s="47">
+        <v>14</v>
+      </c>
+      <c r="G8" s="54">
+        <v>96</v>
+      </c>
+      <c r="H8" s="30">
+        <v>25</v>
+      </c>
+      <c r="I8" s="55">
+        <v>17</v>
+      </c>
+      <c r="J8" s="54">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="L8" s="55">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="54">
+        <v>1008400</v>
+      </c>
+      <c r="N8" s="30">
+        <v>0</v>
+      </c>
+      <c r="O8" s="31">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>9242027100</v>
+      </c>
+      <c r="Q8" s="62">
+        <v>16938829600</v>
+      </c>
+      <c r="R8" s="54">
+        <v>76070474</v>
+      </c>
+      <c r="S8" s="30">
+        <v>76522019</v>
+      </c>
+      <c r="T8" s="31">
+        <v>76527100</v>
+      </c>
+      <c r="U8" s="32">
+        <v>24069427</v>
+      </c>
+      <c r="V8" s="33">
+        <v>24065349</v>
+      </c>
+      <c r="W8" s="67">
+        <f t="shared" si="6"/>
+        <v>1.0084</v>
+      </c>
+      <c r="X8" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="70">
+        <f t="shared" si="9"/>
+        <v>9242.0270999999993</v>
+      </c>
+      <c r="AA8" s="71">
+        <f t="shared" si="10"/>
+        <v>16938.829600000001</v>
+      </c>
+      <c r="AB8" s="67">
+        <f t="shared" si="11"/>
+        <v>76.07047399999999</v>
+      </c>
+      <c r="AC8" s="68">
+        <f t="shared" si="12"/>
+        <v>76.522019</v>
+      </c>
+      <c r="AD8" s="69">
+        <f t="shared" si="13"/>
+        <v>76.52709999999999</v>
+      </c>
+      <c r="AE8" s="70">
+        <f t="shared" si="14"/>
+        <v>24.069426999999997</v>
+      </c>
+      <c r="AF8" s="71">
+        <f t="shared" si="15"/>
+        <v>24.065348999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="48">
+        <v>62</v>
+      </c>
+      <c r="C9" s="34">
+        <v>12</v>
+      </c>
+      <c r="D9" s="35">
+        <v>12</v>
+      </c>
+      <c r="E9" s="36">
+        <v>12</v>
+      </c>
+      <c r="F9" s="47">
+        <v>12</v>
+      </c>
+      <c r="G9" s="54">
+        <v>88</v>
+      </c>
+      <c r="H9" s="30">
+        <v>32</v>
+      </c>
+      <c r="I9" s="55">
+        <v>21</v>
+      </c>
+      <c r="J9" s="54">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L9" s="55">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M9" s="54">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
+        <v>0</v>
+      </c>
+      <c r="O9" s="31">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>9146521200</v>
+      </c>
+      <c r="Q9" s="62">
+        <v>247284900</v>
+      </c>
+      <c r="R9" s="54">
+        <v>76602137</v>
+      </c>
+      <c r="S9" s="30">
+        <v>76529442</v>
+      </c>
+      <c r="T9" s="31">
+        <v>76540073</v>
+      </c>
+      <c r="U9" s="32">
+        <v>25286206</v>
+      </c>
+      <c r="V9" s="33">
+        <v>25276389</v>
+      </c>
+      <c r="W9" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="70">
+        <f t="shared" si="9"/>
+        <v>9146.5211999999992</v>
+      </c>
+      <c r="AA9" s="71">
+        <f t="shared" si="10"/>
+        <v>247.28489999999999</v>
+      </c>
+      <c r="AB9" s="67">
+        <f t="shared" si="11"/>
+        <v>76.602136999999999</v>
+      </c>
+      <c r="AC9" s="68">
+        <f t="shared" si="12"/>
+        <v>76.529442000000003</v>
+      </c>
+      <c r="AD9" s="69">
+        <f t="shared" si="13"/>
+        <v>76.540072999999992</v>
+      </c>
+      <c r="AE9" s="70">
+        <f t="shared" si="14"/>
+        <v>25.286206</v>
+      </c>
+      <c r="AF9" s="71">
+        <f t="shared" si="15"/>
+        <v>25.276388999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="48">
+        <v>35</v>
+      </c>
+      <c r="C10" s="34">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35">
+        <v>20</v>
+      </c>
+      <c r="E10" s="36">
+        <v>20</v>
+      </c>
+      <c r="F10" s="47">
+        <v>20</v>
+      </c>
+      <c r="G10" s="54">
+        <v>41</v>
+      </c>
+      <c r="H10" s="30">
+        <v>51</v>
+      </c>
+      <c r="I10" s="55">
+        <v>25</v>
+      </c>
+      <c r="J10" s="54">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="L10" s="55">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M10" s="54">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="31">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32">
+        <v>9250191100</v>
+      </c>
+      <c r="Q10" s="62">
+        <v>302956500</v>
+      </c>
+      <c r="R10" s="54">
+        <v>77131200</v>
+      </c>
+      <c r="S10" s="30">
+        <v>77037584</v>
+      </c>
+      <c r="T10" s="31">
+        <v>77047943</v>
+      </c>
+      <c r="U10" s="32">
+        <v>26493654</v>
+      </c>
+      <c r="V10" s="33">
+        <v>26482703</v>
+      </c>
+      <c r="W10" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="70">
+        <f t="shared" si="9"/>
+        <v>9250.1911</v>
+      </c>
+      <c r="AA10" s="71">
+        <f t="shared" si="10"/>
+        <v>302.95650000000001</v>
+      </c>
+      <c r="AB10" s="67">
+        <f t="shared" si="11"/>
+        <v>77.131199999999993</v>
+      </c>
+      <c r="AC10" s="68">
+        <f t="shared" si="12"/>
+        <v>77.037583999999995</v>
+      </c>
+      <c r="AD10" s="69">
+        <f t="shared" si="13"/>
+        <v>77.047943000000004</v>
+      </c>
+      <c r="AE10" s="70">
+        <f t="shared" si="14"/>
+        <v>26.493653999999999</v>
+      </c>
+      <c r="AF10" s="71">
+        <f t="shared" si="15"/>
+        <v>26.482702999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="46">
+        <v>39</v>
+      </c>
+      <c r="C11" s="34">
+        <v>39</v>
+      </c>
+      <c r="D11" s="35">
+        <v>39</v>
+      </c>
+      <c r="E11" s="36">
+        <v>39</v>
+      </c>
+      <c r="F11" s="47">
+        <v>39</v>
+      </c>
+      <c r="G11" s="54">
+        <v>42</v>
+      </c>
+      <c r="H11" s="30">
+        <v>105</v>
+      </c>
+      <c r="I11" s="55">
+        <v>93</v>
+      </c>
+      <c r="J11" s="54">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="L11" s="55">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30">
+        <v>0</v>
+      </c>
+      <c r="O11" s="31">
+        <v>0</v>
+      </c>
+      <c r="P11" s="32">
+        <v>9101577300</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>219221900</v>
+      </c>
+      <c r="R11" s="54">
+        <v>77651179</v>
+      </c>
+      <c r="S11" s="30">
+        <v>77562388</v>
+      </c>
+      <c r="T11" s="31">
+        <v>77566336</v>
+      </c>
+      <c r="U11" s="32">
+        <v>27729474</v>
+      </c>
+      <c r="V11" s="33">
+        <v>27719391</v>
+      </c>
+      <c r="W11" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="70">
+        <f t="shared" si="9"/>
+        <v>9101.577299999999</v>
+      </c>
+      <c r="AA11" s="71">
+        <f t="shared" si="10"/>
+        <v>219.22189999999998</v>
+      </c>
+      <c r="AB11" s="67">
+        <f t="shared" si="11"/>
+        <v>77.651178999999999</v>
+      </c>
+      <c r="AC11" s="68">
+        <f t="shared" si="12"/>
+        <v>77.562387999999999</v>
+      </c>
+      <c r="AD11" s="69">
+        <f t="shared" si="13"/>
+        <v>77.566335999999993</v>
+      </c>
+      <c r="AE11" s="70">
+        <f t="shared" si="14"/>
+        <v>27.729474</v>
+      </c>
+      <c r="AF11" s="71">
+        <f t="shared" si="15"/>
+        <v>27.719390999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="48">
+        <v>23</v>
+      </c>
+      <c r="C12" s="34">
+        <v>21</v>
+      </c>
+      <c r="D12" s="35">
+        <v>21</v>
+      </c>
+      <c r="E12" s="36">
+        <v>21</v>
+      </c>
+      <c r="F12" s="47">
+        <v>21</v>
+      </c>
+      <c r="G12" s="54">
+        <v>25</v>
+      </c>
+      <c r="H12" s="30">
+        <v>26</v>
+      </c>
+      <c r="I12" s="55">
+        <v>23</v>
+      </c>
+      <c r="J12" s="54">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="55">
+        <f>I12-D12</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="54">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="31">
+        <v>0</v>
+      </c>
+      <c r="P12" s="32">
+        <v>9210962200</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>261469700</v>
+      </c>
+      <c r="R12" s="54">
+        <v>78178665</v>
+      </c>
+      <c r="S12" s="30">
+        <v>78093572</v>
+      </c>
+      <c r="T12" s="31">
+        <v>78103471</v>
+      </c>
+      <c r="U12" s="32">
+        <v>28965552</v>
+      </c>
+      <c r="V12" s="33">
+        <v>28954722</v>
+      </c>
+      <c r="W12" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="70">
+        <f t="shared" si="9"/>
+        <v>9210.9621999999999</v>
+      </c>
+      <c r="AA12" s="71">
+        <f t="shared" si="10"/>
+        <v>261.46969999999999</v>
+      </c>
+      <c r="AB12" s="67">
+        <f t="shared" si="11"/>
+        <v>78.178664999999995</v>
+      </c>
+      <c r="AC12" s="68">
+        <f t="shared" si="12"/>
+        <v>78.093571999999995</v>
+      </c>
+      <c r="AD12" s="69">
+        <f t="shared" si="13"/>
+        <v>78.103470999999999</v>
+      </c>
+      <c r="AE12" s="70">
+        <f t="shared" si="14"/>
+        <v>28.965551999999999</v>
+      </c>
+      <c r="AF12" s="71">
+        <f t="shared" si="15"/>
+        <v>28.954722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="46">
+        <v>22</v>
+      </c>
+      <c r="C13" s="34">
+        <v>22</v>
+      </c>
+      <c r="D13" s="35">
+        <v>22</v>
+      </c>
+      <c r="E13" s="36">
+        <v>22</v>
+      </c>
+      <c r="F13" s="47">
+        <v>22</v>
+      </c>
+      <c r="G13" s="54">
+        <v>24</v>
+      </c>
+      <c r="H13" s="30">
+        <v>70</v>
+      </c>
+      <c r="I13" s="55">
+        <v>46</v>
+      </c>
+      <c r="J13" s="54">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L13" s="55">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="M13" s="54">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30">
+        <v>0</v>
+      </c>
+      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="P13" s="32">
+        <v>8516921500</v>
+      </c>
+      <c r="Q13" s="62">
+        <v>170304000</v>
+      </c>
+      <c r="R13" s="54">
+        <v>78689036</v>
+      </c>
+      <c r="S13" s="30">
+        <v>78607461</v>
+      </c>
+      <c r="T13" s="31">
+        <v>78624665</v>
+      </c>
+      <c r="U13" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V13" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W13" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="70">
+        <f t="shared" si="9"/>
+        <v>8516.9215000000004</v>
+      </c>
+      <c r="AA13" s="71">
+        <f t="shared" si="10"/>
+        <v>170.304</v>
+      </c>
+      <c r="AB13" s="67">
+        <f t="shared" si="11"/>
+        <v>78.689036000000002</v>
+      </c>
+      <c r="AC13" s="68">
+        <f t="shared" si="12"/>
+        <v>78.607461000000001</v>
+      </c>
+      <c r="AD13" s="69">
+        <f t="shared" si="13"/>
+        <v>78.624664999999993</v>
+      </c>
+      <c r="AE13" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF13" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A14" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="46">
+        <v>13</v>
+      </c>
+      <c r="C14" s="34">
+        <v>13</v>
+      </c>
+      <c r="D14" s="35">
+        <v>13</v>
+      </c>
+      <c r="E14" s="36">
+        <v>13</v>
+      </c>
+      <c r="F14" s="47">
+        <v>13</v>
+      </c>
+      <c r="G14" s="54">
+        <v>14</v>
+      </c>
+      <c r="H14" s="30">
+        <v>20</v>
+      </c>
+      <c r="I14" s="55">
+        <v>14</v>
+      </c>
+      <c r="J14" s="54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="54">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="31">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>13486050200</v>
+      </c>
+      <c r="Q14" s="62">
+        <v>1104390100</v>
+      </c>
+      <c r="R14" s="54">
+        <v>78693420</v>
+      </c>
+      <c r="S14" s="30">
+        <v>78627498</v>
+      </c>
+      <c r="T14" s="31">
+        <v>78644439</v>
+      </c>
+      <c r="U14" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V14" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W14" s="67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="70">
+        <f t="shared" si="9"/>
+        <v>13486.0502</v>
+      </c>
+      <c r="AA14" s="71">
+        <f t="shared" si="10"/>
+        <v>1104.3900999999998</v>
+      </c>
+      <c r="AB14" s="67">
+        <f t="shared" si="11"/>
+        <v>78.693420000000003</v>
+      </c>
+      <c r="AC14" s="68">
+        <f t="shared" si="12"/>
+        <v>78.627498000000003</v>
+      </c>
+      <c r="AD14" s="69">
+        <f t="shared" si="13"/>
+        <v>78.644438999999991</v>
+      </c>
+      <c r="AE14" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF14" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A15" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="46">
+        <v>125</v>
+      </c>
+      <c r="C15" s="34">
+        <v>125</v>
+      </c>
+      <c r="D15" s="35">
+        <v>125</v>
+      </c>
+      <c r="E15" s="36">
+        <v>125</v>
+      </c>
+      <c r="F15" s="47">
+        <v>125</v>
+      </c>
+      <c r="G15" s="54">
+        <v>186</v>
+      </c>
+      <c r="H15" s="30">
+        <v>200</v>
+      </c>
+      <c r="I15" s="55">
+        <v>177</v>
+      </c>
+      <c r="J15" s="54">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="L15" s="55">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="M15" s="54">
+        <v>1001300</v>
+      </c>
+      <c r="N15" s="30">
+        <v>549300</v>
+      </c>
+      <c r="O15" s="31">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>14378892300</v>
+      </c>
+      <c r="Q15" s="62">
+        <v>1009760000</v>
+      </c>
+      <c r="R15" s="54">
+        <v>79175356</v>
+      </c>
+      <c r="S15" s="30">
+        <v>79151706</v>
+      </c>
+      <c r="T15" s="31">
+        <v>79163816</v>
+      </c>
+      <c r="U15" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V15" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W15" s="67">
+        <f t="shared" si="6"/>
+        <v>1.0012999999999999</v>
+      </c>
+      <c r="X15" s="68">
+        <f t="shared" si="7"/>
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="Y15" s="69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="70">
+        <f t="shared" si="9"/>
+        <v>14378.8923</v>
+      </c>
+      <c r="AA15" s="71">
+        <f t="shared" si="10"/>
+        <v>1009.76</v>
+      </c>
+      <c r="AB15" s="67">
+        <f t="shared" si="11"/>
+        <v>79.175355999999994</v>
+      </c>
+      <c r="AC15" s="68">
+        <f t="shared" si="12"/>
+        <v>79.15170599999999</v>
+      </c>
+      <c r="AD15" s="69">
+        <f t="shared" si="13"/>
+        <v>79.163815999999997</v>
+      </c>
+      <c r="AE15" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF15" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="46">
+        <v>411</v>
+      </c>
+      <c r="C16" s="34">
+        <v>411</v>
+      </c>
+      <c r="D16" s="35">
+        <v>411</v>
+      </c>
+      <c r="E16" s="36">
+        <v>411</v>
+      </c>
+      <c r="F16" s="47">
+        <v>411</v>
+      </c>
+      <c r="G16" s="54">
+        <v>1732</v>
+      </c>
+      <c r="H16" s="30">
+        <v>520</v>
+      </c>
+      <c r="I16" s="55">
+        <v>514</v>
+      </c>
+      <c r="J16" s="54">
+        <f t="shared" si="3"/>
+        <v>1321</v>
+      </c>
+      <c r="K16" s="30">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="L16" s="55">
+        <f t="shared" si="5"/>
+        <v>103</v>
+      </c>
+      <c r="M16" s="54">
+        <v>19059500</v>
+      </c>
+      <c r="N16" s="30">
+        <v>4847900</v>
+      </c>
+      <c r="O16" s="31">
+        <v>7432200</v>
+      </c>
+      <c r="P16" s="32">
+        <v>140893421400</v>
+      </c>
+      <c r="Q16" s="62">
+        <v>29083263800</v>
+      </c>
+      <c r="R16" s="54">
+        <v>79800159</v>
+      </c>
+      <c r="S16" s="30">
+        <v>79787954</v>
+      </c>
+      <c r="T16" s="31">
+        <v>79799000</v>
+      </c>
+      <c r="U16" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V16" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W16" s="67">
+        <f t="shared" si="6"/>
+        <v>19.0595</v>
+      </c>
+      <c r="X16" s="68">
+        <f t="shared" si="7"/>
+        <v>4.8479000000000001</v>
+      </c>
+      <c r="Y16" s="69">
+        <f t="shared" si="8"/>
+        <v>7.4321999999999999</v>
+      </c>
+      <c r="Z16" s="70">
+        <f t="shared" si="9"/>
+        <v>140893.42139999999</v>
+      </c>
+      <c r="AA16" s="71">
+        <f t="shared" si="10"/>
+        <v>29083.263799999997</v>
+      </c>
+      <c r="AB16" s="67">
+        <f t="shared" si="11"/>
+        <v>79.800158999999994</v>
+      </c>
+      <c r="AC16" s="68">
+        <f t="shared" si="12"/>
+        <v>79.787953999999999</v>
+      </c>
+      <c r="AD16" s="69">
+        <f t="shared" si="13"/>
+        <v>79.798999999999992</v>
+      </c>
+      <c r="AE16" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF16" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="46">
+        <v>611</v>
+      </c>
+      <c r="C17" s="34">
+        <v>614</v>
+      </c>
+      <c r="D17" s="35">
+        <v>641</v>
+      </c>
+      <c r="E17" s="36">
+        <v>641</v>
+      </c>
+      <c r="F17" s="47">
+        <v>641</v>
+      </c>
+      <c r="G17" s="54">
+        <v>736</v>
+      </c>
+      <c r="H17" s="30">
+        <v>923</v>
+      </c>
+      <c r="I17" s="55">
+        <v>890</v>
+      </c>
+      <c r="J17" s="54">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="K17" s="30">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="L17" s="55">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="M17" s="54">
+        <v>5314900</v>
+      </c>
+      <c r="N17" s="30">
+        <v>5998400</v>
+      </c>
+      <c r="O17" s="31">
+        <v>15625000</v>
+      </c>
+      <c r="P17" s="32">
+        <v>144746863500</v>
+      </c>
+      <c r="Q17" s="62">
+        <v>45748836100</v>
+      </c>
+      <c r="R17" s="54">
+        <v>81387449</v>
+      </c>
+      <c r="S17" s="30">
+        <v>81311847</v>
+      </c>
+      <c r="T17" s="31">
+        <v>81324383</v>
+      </c>
+      <c r="U17" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V17" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W17" s="67">
+        <f t="shared" si="6"/>
+        <v>5.3148999999999997</v>
+      </c>
+      <c r="X17" s="68">
+        <f t="shared" si="7"/>
+        <v>5.9983999999999993</v>
+      </c>
+      <c r="Y17" s="69">
+        <f t="shared" si="8"/>
+        <v>15.625</v>
+      </c>
+      <c r="Z17" s="70">
+        <f t="shared" si="9"/>
+        <v>144746.86350000001</v>
+      </c>
+      <c r="AA17" s="71">
+        <f t="shared" si="10"/>
+        <v>45748.8361</v>
+      </c>
+      <c r="AB17" s="67">
+        <f t="shared" si="11"/>
+        <v>81.387448999999989</v>
+      </c>
+      <c r="AC17" s="68">
+        <f t="shared" si="12"/>
+        <v>81.311847</v>
+      </c>
+      <c r="AD17" s="69">
+        <f t="shared" si="13"/>
+        <v>81.324382999999997</v>
+      </c>
+      <c r="AE17" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF17" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="46">
+        <v>2321</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2321</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2321</v>
+      </c>
+      <c r="E18" s="36">
+        <v>2321</v>
+      </c>
+      <c r="F18" s="47">
+        <v>2321</v>
+      </c>
+      <c r="G18" s="54">
+        <v>3378</v>
+      </c>
+      <c r="H18" s="30">
+        <v>4440</v>
+      </c>
+      <c r="I18" s="55">
+        <v>4354</v>
+      </c>
+      <c r="J18" s="54">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="K18" s="30">
+        <f t="shared" si="4"/>
+        <v>2119</v>
+      </c>
+      <c r="L18" s="55">
+        <f t="shared" si="5"/>
+        <v>2033</v>
+      </c>
+      <c r="M18" s="54">
+        <v>28546400</v>
+      </c>
+      <c r="N18" s="30">
+        <v>66714600</v>
+      </c>
+      <c r="O18" s="31">
+        <v>99852600</v>
+      </c>
+      <c r="P18" s="32">
+        <v>389352382500</v>
+      </c>
+      <c r="Q18" s="62">
+        <v>477828134100</v>
+      </c>
+      <c r="R18" s="54">
+        <v>81945044</v>
+      </c>
+      <c r="S18" s="30">
+        <v>81944774</v>
+      </c>
+      <c r="T18" s="31">
+        <v>81953689</v>
+      </c>
+      <c r="U18" s="32">
+        <v>30191932</v>
+      </c>
+      <c r="V18" s="33">
+        <v>30189187</v>
+      </c>
+      <c r="W18" s="67">
+        <f t="shared" si="6"/>
+        <v>28.546399999999998</v>
+      </c>
+      <c r="X18" s="68">
+        <f t="shared" si="7"/>
+        <v>66.71459999999999</v>
+      </c>
+      <c r="Y18" s="69">
+        <f t="shared" si="8"/>
+        <v>99.852599999999995</v>
+      </c>
+      <c r="Z18" s="70">
+        <f t="shared" si="9"/>
+        <v>389352.38250000001</v>
+      </c>
+      <c r="AA18" s="71">
+        <f t="shared" si="10"/>
+        <v>477828.13409999997</v>
+      </c>
+      <c r="AB18" s="67">
+        <f t="shared" si="11"/>
+        <v>81.945043999999996</v>
+      </c>
+      <c r="AC18" s="68">
+        <f t="shared" si="12"/>
+        <v>81.944773999999995</v>
+      </c>
+      <c r="AD18" s="69">
+        <f t="shared" si="13"/>
+        <v>81.953688999999997</v>
+      </c>
+      <c r="AE18" s="70">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF18" s="71">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="49">
+        <v>525</v>
+      </c>
+      <c r="C19" s="50">
+        <v>525</v>
+      </c>
+      <c r="D19" s="51">
+        <v>525</v>
+      </c>
+      <c r="E19" s="52">
+        <v>525</v>
+      </c>
+      <c r="F19" s="53">
+        <v>525</v>
+      </c>
+      <c r="G19" s="56">
+        <v>1249</v>
+      </c>
+      <c r="H19" s="57">
+        <v>1665</v>
+      </c>
+      <c r="I19" s="58">
+        <v>1552</v>
+      </c>
+      <c r="J19" s="56">
+        <f t="shared" si="3"/>
+        <v>724</v>
+      </c>
+      <c r="K19" s="57">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="L19" s="58">
+        <f t="shared" si="5"/>
+        <v>1027</v>
+      </c>
+      <c r="M19" s="56">
+        <v>12005400</v>
+      </c>
+      <c r="N19" s="57">
+        <v>24181000</v>
+      </c>
+      <c r="O19" s="63">
+        <v>26720900</v>
+      </c>
+      <c r="P19" s="64">
+        <v>444826582800</v>
+      </c>
+      <c r="Q19" s="65">
+        <v>191583081600</v>
+      </c>
+      <c r="R19" s="56">
+        <v>81945044</v>
+      </c>
+      <c r="S19" s="57">
+        <v>81944774</v>
+      </c>
+      <c r="T19" s="63">
+        <v>81953689</v>
+      </c>
+      <c r="U19" s="64">
+        <v>30191932</v>
+      </c>
+      <c r="V19" s="66">
+        <v>30189187</v>
+      </c>
+      <c r="W19" s="72">
+        <f t="shared" si="6"/>
+        <v>12.0054</v>
+      </c>
+      <c r="X19" s="73">
+        <f t="shared" si="7"/>
+        <v>24.180999999999997</v>
+      </c>
+      <c r="Y19" s="74">
+        <f t="shared" si="8"/>
+        <v>26.7209</v>
+      </c>
+      <c r="Z19" s="75">
+        <f t="shared" si="9"/>
+        <v>444826.58279999997</v>
+      </c>
+      <c r="AA19" s="76">
+        <f t="shared" si="10"/>
+        <v>191583.0816</v>
+      </c>
+      <c r="AB19" s="72">
+        <f t="shared" si="11"/>
+        <v>81.945043999999996</v>
+      </c>
+      <c r="AC19" s="73">
+        <f t="shared" si="12"/>
+        <v>81.944773999999995</v>
+      </c>
+      <c r="AD19" s="74">
+        <f t="shared" si="13"/>
+        <v>81.953688999999997</v>
+      </c>
+      <c r="AE19" s="75">
+        <f t="shared" si="14"/>
+        <v>30.191931999999998</v>
+      </c>
+      <c r="AF19" s="76">
+        <f t="shared" si="15"/>
+        <v>30.189186999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A29"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34"/>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35"/>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36"/>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39"/>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46"/>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47"/>
+      <c r="B47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>